--- a/console/Networking/podChExcel/podMixinsXlsx/components/detail/pod_netSecurity.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/detail/pod_netSecurity.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -81,9 +76,6 @@
     </r>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>pod_netSecurity_i18nKey_6</t>
   </si>
   <si>
@@ -179,9 +171,6 @@
   </si>
   <si>
     <t>pod_netSecurity_i18nKey_13</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>pod_netSecurity_i18nKey_14</t>
@@ -375,7 +364,15 @@
     </r>
   </si>
   <si>
-    <t>Security group is a distributed, stateful Virtual Firewall and is used for implementing network IAM of container,</t>
+    <t>Create at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security group is a stateful distributed virtual firewall, used to realize the network identity and access management of the Container</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +407,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,9 +439,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,15 +789,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.25" style="1"/>
+    <col min="1" max="3" width="38.25" style="1"/>
+    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="38.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -791,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -813,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -837,118 +853,118 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
